--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/MukeshHybridFramework/TestData/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/git/MukeshHybridFramework/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4C72E-34CD-6045-A89B-2BFD56CD818C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FFFFB-926F-714B-BF52-27B007E38821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>admin@123</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -457,10 +454,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -472,7 +473,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/git/MukeshHybridFramework/TestData/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FFFFB-926F-714B-BF52-27B007E38821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB242C-0A18-7447-91AC-68AF897B14BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="LoginNew" sheetId="2" r:id="rId2"/>
+    <sheet name="Login-invalid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -49,6 +50,21 @@
   </si>
   <si>
     <t>admin@123</t>
+  </si>
+  <si>
+    <t>ratna.peesapati@wishpond.com</t>
+  </si>
+  <si>
+    <t>Srikanth@1983</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ratna.peesapati1@wishpond.com</t>
+  </si>
+  <si>
+    <t>Srikanth1@1983</t>
   </si>
 </sst>
 </file>
@@ -453,13 +469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499A47BA-29A2-5948-826D-53D4F42A77F6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,15 +484,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -486,4 +502,43 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{50644A57-12F1-B84D-B8A5-0F38944FA240}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{404DF31D-F09C-0145-B1A2-01EDC0A9132A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB242C-0A18-7447-91AC-68AF897B14BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF47688-DDD1-E349-9AAD-F6E4A6DDA75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginNew" sheetId="2" r:id="rId2"/>
-    <sheet name="Login-invalid" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
+    <sheet name="merchantid" sheetId="3" r:id="rId2"/>
+    <sheet name="PlanId" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,18 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin@email.com</t>
-  </si>
-  <si>
-    <t>admin@123</t>
   </si>
   <si>
     <t>ratna.peesapati@wishpond.com</t>
@@ -61,10 +52,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>ratna.peesapati1@wishpond.com</t>
+    <t>merchantid</t>
   </si>
   <si>
-    <t>Srikanth1@1983</t>
+    <t>PlanId</t>
   </si>
 </sst>
 </file>
@@ -426,51 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA2446A-5DBB-5C46-B03C-9D7D74FC146B}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{94E51A8D-B4E6-1F44-938C-96A4F8D50865}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CE42A4BA-F7C6-8445-80D8-E9461BF5691A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499A47BA-29A2-5948-826D-53D4F42A77F6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,15 +435,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -504,12 +455,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,27 +469,42 @@
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{50644A57-12F1-B84D-B8A5-0F38944FA240}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{404DF31D-F09C-0145-B1A2-01EDC0A9132A}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939123D-DD22-204B-B77D-FE82362D9165}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1366</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF47688-DDD1-E349-9AAD-F6E4A6DDA75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C90B75-3BD6-DC49-96A3-67CBC2B04A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="5" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
-    <sheet name="merchantid" sheetId="3" r:id="rId2"/>
-    <sheet name="PlanId" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="merchantid" sheetId="3" r:id="rId3"/>
+    <sheet name="PlanId" sheetId="4" r:id="rId4"/>
+    <sheet name="doorman" sheetId="5" r:id="rId5"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +59,30 @@
   </si>
   <si>
     <t>PlanId</t>
+  </si>
+  <si>
+    <t>website_builder</t>
+  </si>
+  <si>
+    <t>doorman</t>
+  </si>
+  <si>
+    <t>doormanvalidate</t>
+  </si>
+  <si>
+    <t>Remove: website_builder</t>
+  </si>
+  <si>
+    <t>successmg</t>
+  </si>
+  <si>
+    <t>Successfully added feature: website_builder</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Harika WS</t>
   </si>
 </sst>
 </file>
@@ -421,7 +448,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,11 +483,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86853290-46FC-9540-9AE7-D8E4A5ED5628}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,12 +523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939123D-DD22-204B-B77D-FE82362D9165}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,4 +546,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C859286-3D92-4847-937E-6C2B90A858A4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C90B75-3BD6-DC49-96A3-67CBC2B04A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156356FB-FCA5-934F-9873-CFDFEC282657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="5" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="merchantid" sheetId="3" r:id="rId3"/>
-    <sheet name="PlanId" sheetId="4" r:id="rId4"/>
-    <sheet name="doorman" sheetId="5" r:id="rId5"/>
-    <sheet name="Campaign" sheetId="7" r:id="rId6"/>
+    <sheet name="merchantid" sheetId="3" r:id="rId2"/>
+    <sheet name="PlanId" sheetId="4" r:id="rId3"/>
+    <sheet name="doorman" sheetId="5" r:id="rId4"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId5"/>
+    <sheet name="NewLead" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>Harika WS</t>
+  </si>
+  <si>
+    <t>Ratna</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>leadscore</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>ratnatest2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -483,23 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86853290-46FC-9540-9AE7-D8E4A5ED5628}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +524,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939123D-DD22-204B-B77D-FE82362D9165}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -548,7 +557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C859286-3D92-4847-937E-6C2B90A858A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -590,12 +599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,4 +625,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{901D69B2-1566-8E47-A6E1-5FC887850B83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156356FB-FCA5-934F-9873-CFDFEC282657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B21AAE-46AD-9B4E-A6CF-EA9BADF8C0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="5" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="6" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="doorman" sheetId="5" r:id="rId4"/>
     <sheet name="Campaign" sheetId="7" r:id="rId5"/>
     <sheet name="NewLead" sheetId="8" r:id="rId6"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -631,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,4 +677,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{227BC313-4974-644B-A93C-3E71AF0ECE95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B21AAE-46AD-9B4E-A6CF-EA9BADF8C0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F714C-E893-2646-B217-62E74BBB35C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="6" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
     <sheet name="merchantid" sheetId="3" r:id="rId2"/>
-    <sheet name="PlanId" sheetId="4" r:id="rId3"/>
-    <sheet name="doorman" sheetId="5" r:id="rId4"/>
-    <sheet name="Campaign" sheetId="7" r:id="rId5"/>
-    <sheet name="NewLead" sheetId="8" r:id="rId6"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId7"/>
+    <sheet name="invalidmerchantid" sheetId="10" r:id="rId3"/>
+    <sheet name="PlanId" sheetId="4" r:id="rId4"/>
+    <sheet name="doorman" sheetId="5" r:id="rId5"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId6"/>
+    <sheet name="NewLead" sheetId="8" r:id="rId7"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -105,6 +106,9 @@
   </si>
   <si>
     <t>ratnatest2@gmail.com</t>
+  </si>
+  <si>
+    <t>MerchantId</t>
   </si>
 </sst>
 </file>
@@ -534,6 +538,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC3AEF-6AC1-5142-A5A6-108314092495}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939123D-DD22-204B-B77D-FE82362D9165}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -558,7 +590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C859286-3D92-4847-937E-6C2B90A858A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -600,7 +632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -628,7 +660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -679,12 +711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F714C-E893-2646-B217-62E74BBB35C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B13EA-AF78-4147-B79F-17F8F921F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
     <sheet name="merchantid" sheetId="3" r:id="rId2"/>
-    <sheet name="invalidmerchantid" sheetId="10" r:id="rId3"/>
-    <sheet name="PlanId" sheetId="4" r:id="rId4"/>
-    <sheet name="doorman" sheetId="5" r:id="rId5"/>
-    <sheet name="Campaign" sheetId="7" r:id="rId6"/>
-    <sheet name="NewLead" sheetId="8" r:id="rId7"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId8"/>
+    <sheet name="InvalidCredentials" sheetId="11" r:id="rId3"/>
+    <sheet name="invalidmerchantid" sheetId="10" r:id="rId4"/>
+    <sheet name="PlanId" sheetId="4" r:id="rId5"/>
+    <sheet name="doorman" sheetId="5" r:id="rId6"/>
+    <sheet name="Campaign" sheetId="7" r:id="rId7"/>
+    <sheet name="NewLead" sheetId="8" r:id="rId8"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>MerchantId</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ratna.peesapat@wishpond.com</t>
   </si>
 </sst>
 </file>
@@ -538,10 +545,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F4F9A-7BE7-6C48-95D6-2420BE5CCAD6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5E0461FB-63A4-E549-B9EB-932F1388BF01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC3AEF-6AC1-5142-A5A6-108314092495}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939123D-DD22-204B-B77D-FE82362D9165}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -590,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C859286-3D92-4847-937E-6C2B90A858A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -632,7 +670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69057D-C170-7646-B960-B9935FC967DB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -660,7 +698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FA04A-AE13-0D4B-9F62-51D3CA56CDB0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -711,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B13EA-AF78-4147-B79F-17F8F921F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FE4CB-8B99-DC4C-BB3C-482E67F10A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginNew" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="doorman" sheetId="5" r:id="rId6"/>
     <sheet name="Campaign" sheetId="7" r:id="rId7"/>
     <sheet name="NewLead" sheetId="8" r:id="rId8"/>
-    <sheet name="LeadSearch" sheetId="9" r:id="rId9"/>
+    <sheet name="NewUser" sheetId="12" r:id="rId9"/>
+    <sheet name="LeadSearch" sheetId="9" r:id="rId10"/>
+    <sheet name="Filter" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -116,6 +118,33 @@
   </si>
   <si>
     <t>ratna.peesapat@wishpond.com</t>
+  </si>
+  <si>
+    <t>Harika</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>confirmpass</t>
+  </si>
+  <si>
+    <t>Filtervalue</t>
+  </si>
+  <si>
+    <t>Email Automation</t>
+  </si>
+  <si>
+    <t>ratna10@gmail.com</t>
+  </si>
+  <si>
+    <t>Usercreatedmsg</t>
+  </si>
+  <si>
+    <t>User created</t>
   </si>
 </sst>
 </file>
@@ -515,12 +544,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{227BC313-4974-644B-A93C-3E71AF0ECE95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07623-D778-CE42-A260-C2A1AD4014DA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1D158-A8EE-3242-8C5F-262C6237BCE1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +624,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -548,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9F4F9A-7BE7-6C48-95D6-2420BE5CCAD6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,31 +838,62 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82093-B66E-234C-A937-B5E49D6DA9CC}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC50F9BD-B681-A140-939D-4BB44F85D8CC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{227BC313-4974-644B-A93C-3E71AF0ECE95}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0AD4F01D-457F-D546-8CCB-7FED21A30E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/excel/TestFile.xlsx
+++ b/TestData/excel/TestFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wishpond/eclipse-workspace/WishpondFrameWork/TestData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E99F60-AAF6-3E4C-B79A-19466B4A82F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DF4A3-9DC1-EE4E-9E68-1A0E84090577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="8" xr2:uid="{6A97D463-93C1-3040-AD7E-67E5CC870191}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>User created</t>
   </si>
   <si>
-    <t>ratna13@gmail.com</t>
+    <t>ratna14@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
